--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="4"/>
+    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
     <sheet name="Mails" sheetId="4" r:id="rId4"/>
     <sheet name="Reportes" sheetId="5" r:id="rId5"/>
+    <sheet name="Descripcion Reportes" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -336,9 +337,6 @@
     <t>Data\Temp\BerryStatusReport.txt</t>
   </si>
   <si>
-    <t>Status_Report AMA 2021;BASE</t>
-  </si>
-  <si>
     <t>ID_Execution</t>
   </si>
   <si>
@@ -388,6 +386,70 @@
   </si>
   <si>
     <t>7:30 - 9:29</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Status_Report AMA 2021.xlsx</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Despachos to date.xlsx</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Inventario to date.xlsx</t>
+  </si>
+  <si>
+    <t>ExtraData</t>
+  </si>
+  <si>
+    <t>BASE;76;{28,29,30,40,41,45,67,68,69,70};A:BX</t>
+  </si>
+  <si>
+    <t>Base de datos;32;{7,9};A:AF</t>
+  </si>
+  <si>
+    <t>Base de datos;30;{19};A:AD</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\3.Open orders to date.xls</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Price List to date.xlsx</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Codigos to date.xlsx</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Ventas to date.xlsx</t>
+  </si>
+  <si>
+    <t>Nombre del reporte en Oracle Application</t>
+  </si>
+  <si>
+    <t>Dirección completa del archivo a guardar</t>
+  </si>
+  <si>
+    <t>Dirección completa del archivo destino a ejecutarse, ya sea, la dirección de la macro o el formulario de excel donde se ingresaran los datos.</t>
+  </si>
+  <si>
+    <t>Datos extra:
+- Si ejecuta una macro entonces se coloca el archivo que generará la macro.
+- Si se ingresaban datos a un formularion entonces se coloca los siguientes datos: Nombre de la hoja del formulario destino; cantidad de columnas del reporte a cargar; {índices de las columna que llevan formato fecha (comenzando el primer índice en cero)} del reporte a cargar; rango de columnas del reporte a cargar</t>
+  </si>
+  <si>
+    <t>Identificador para el robot:
+1 - Ejecutar macro '1.Generador Open Orders (Macro).xls'
+2 - Cargar datos del reporte descargado a un archivo excel destino.
+3 - Ejecutar macro 'ARCHIVO FUENTE REPORTES DIARIOS.xlsm'</t>
+  </si>
+  <si>
+    <t>Nombre de la responsabilidad donde se genera el reporte.</t>
+  </si>
+  <si>
+    <t>Rango de horarios por los que se filtra la tabla de reportes según la hora a la cual se ejecuta el robot.
+Se escribe en un formato de 24 horas, con los dos horarios correspondientes al rango separados por un guión "-". Los intervalos se separán por el siguiente caracter barra "|". Por ejemplo dos rangos horarios se escribirían:
+8:30 - 9:30 | 12:30 - 15:30</t>
+  </si>
+  <si>
+    <t>Texto dentro del botón de la macro que debe ejecutarse.</t>
   </si>
 </sst>
 </file>
@@ -498,7 +560,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -536,12 +598,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -582,9 +670,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -594,14 +679,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -609,14 +701,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1013,7 +1107,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -1024,7 +1118,7 @@
         <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>95</v>
@@ -1072,10 +1166,10 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
         <v>104</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4421,10 +4515,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4432,13 +4526,14 @@
     <col min="1" max="1" width="31.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4449,177 +4544,278 @@
         <v>80</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>107</v>
+      <c r="H1" s="24" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="17">
-        <v>1</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G3" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="28">
+        <v>2</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="H4" s="20" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="15">
-        <v>3</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="15">
-        <v>2</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:8" ht="45">
       <c r="A5" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C5" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="15">
         <v>3</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>109</v>
+      <c r="G5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:8" ht="45">
       <c r="A6" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="C6" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="15">
         <v>3</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>108</v>
+      <c r="G6" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45">
+    <row r="7" spans="1:8" ht="45">
       <c r="A7" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="C7" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="13">
         <v>3</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>110</v>
+      <c r="G7" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:8" ht="30">
+      <c r="A8" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="15">
-        <v>3</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="C8" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="15">
+        <v>2</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>111</v>
+      <c r="G8" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="165">
+      <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -2,29 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vya00\Documents\RenewSolutions\Proceso descarga de reportes diarios\Consumidor - Proceso de Descarga de Reportes Diarios Customer Service\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpalatam\Documents\UiPath\Consumidor Proceso de Descarga de Reportes Diarios Customer Service\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
     <sheet name="Mails" sheetId="4" r:id="rId4"/>
-    <sheet name="Reportes" sheetId="5" r:id="rId5"/>
-    <sheet name="Descripcion Reportes" sheetId="6" r:id="rId6"/>
+    <sheet name="Reportes2" sheetId="5" r:id="rId5"/>
+    <sheet name="Reportes" sheetId="7" r:id="rId6"/>
+    <sheet name="Descripcion Reportes" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="138">
   <si>
     <t>Name</t>
   </si>
@@ -90,15 +91,15 @@
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
@@ -253,18 +254,6 @@
     <t>PathSaveFile</t>
   </si>
   <si>
-    <t>P:\Comercial\REPORTES DIARIOS\Plano de Despachos.txt</t>
-  </si>
-  <si>
-    <t>P:\Comercial\REPORTES DIARIOS\Price List to date.txt</t>
-  </si>
-  <si>
-    <t>P:\Comercial\REPORTES DIARIOS\Codigos to date.txt</t>
-  </si>
-  <si>
-    <t>P:\Comercial\REPORTES DIARIOS\Ventas to date.txt</t>
-  </si>
-  <si>
     <t>P:\Comercial\REPORTES DIARIOS\Inventario to date, 1.txt</t>
   </si>
   <si>
@@ -280,9 +269,6 @@
     <t>PathTargetFile</t>
   </si>
   <si>
-    <t>P:\Comercial\Depachos\Open orders to date.txt</t>
-  </si>
-  <si>
     <t>Carpeta de descargas del PC C:\Users\rpalatam\Downloads</t>
   </si>
   <si>
@@ -334,9 +320,6 @@
     <t>LogFolder</t>
   </si>
   <si>
-    <t>Data\Temp\BerryStatusReport.txt</t>
-  </si>
-  <si>
     <t>ID_Execution</t>
   </si>
   <si>
@@ -346,9 +329,6 @@
     <t>Descarga de Reportes Diarios Customer Service</t>
   </si>
   <si>
-    <t>https://oraebsapp907-bp.berryplastics.com:8002/OA_HTML/AppsLocalLogin.jsp?langCode=ESA</t>
-  </si>
-  <si>
     <t>PRD: https://oraebsappoag-bp.berryplastics.com:8001/OA_HTML/AppsLocalLogin.jsp?langCode=ESA</t>
   </si>
   <si>
@@ -373,12 +353,6 @@
     <t>Update - Desp</t>
   </si>
   <si>
-    <t>P:\Comercial\REPORTES DIARIOS\ARCHIVO FUENTE REPORTES DIARIOS.xlsm</t>
-  </si>
-  <si>
-    <t>P:\Comercial\Despachos\1.Generador Open Orders (Macro).xls</t>
-  </si>
-  <si>
     <t>7:30 - 9:29 | 9:30 - 11:29 | 11:30 - 14:29 | 14:30 - 16:29 | 16:30 - 23:59</t>
   </si>
   <si>
@@ -388,15 +362,6 @@
     <t>7:30 - 9:29</t>
   </si>
   <si>
-    <t>P:\Comercial\REPORTES DIARIOS\Status_Report AMA 2021.xlsx</t>
-  </si>
-  <si>
-    <t>P:\Comercial\REPORTES DIARIOS\Despachos to date.xlsx</t>
-  </si>
-  <si>
-    <t>P:\Comercial\REPORTES DIARIOS\Inventario to date.xlsx</t>
-  </si>
-  <si>
     <t>ExtraData</t>
   </si>
   <si>
@@ -407,18 +372,6 @@
   </si>
   <si>
     <t>Base de datos;30;{19};A:AD</t>
-  </si>
-  <si>
-    <t>P:\Comercial\REPORTES DIARIOS\3.Open orders to date.xls</t>
-  </si>
-  <si>
-    <t>P:\Comercial\REPORTES DIARIOS\Price List to date.xlsx</t>
-  </si>
-  <si>
-    <t>P:\Comercial\REPORTES DIARIOS\Codigos to date.xlsx</t>
-  </si>
-  <si>
-    <t>P:\Comercial\REPORTES DIARIOS\Ventas to date.xlsx</t>
   </si>
   <si>
     <t>Nombre del reporte en Oracle Application</t>
@@ -450,17 +403,78 @@
   </si>
   <si>
     <t>Texto dentro del botón de la macro que debe ejecutarse.</t>
+  </si>
+  <si>
+    <t>P:\Comercial\Despachos\Open orders to date.txt</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\ARCHIVO FUENTE REPORTES DIARIOS.xlsm</t>
+  </si>
+  <si>
+    <t>P:\Comercial\Despachos\1.Generador Open Orders (Macro).xls</t>
+  </si>
+  <si>
+    <t>P:\Comercial\Despachos\3.Open orders to date.xls</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Status_Report AMA 2021.xlsx</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Despachos to date.xlsx</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Price List to date.txt</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Price List to date.xlsx</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Codigos to date.txt</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Ventas to date.xlsx</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\ventas to date.txt</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Inventario to date.xlsx</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Status report to date.txt</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Codigos to date.xlsx</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Despachos to date.txt</t>
+  </si>
+  <si>
+    <t>https://oraebsappoag-bp.berryplastics.com:8001/OA_HTML/AppsLocalLogin.jsp?langCode=ESA</t>
+  </si>
+  <si>
+    <t>Oracle_Diarios_PRD</t>
+  </si>
+  <si>
+    <t>BerryArg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -627,16 +641,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -657,62 +671,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,10 +1029,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1107,7 +1109,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -1115,13 +1117,13 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1130,7 +1132,7 @@
         <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -1139,7 +1141,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1150,12 +1152,12 @@
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -1166,10 +1168,10 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2155,7 +2157,7 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2163,6 +2165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3319,17 +3322,18 @@
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3378,43 +3382,65 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4410,13 +4436,14 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4515,226 +4542,227 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
     <col min="7" max="7" width="27.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="C2" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="27">
+        <v>1</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="30">
+        <v>2</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="30">
+        <v>2</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="23">
+        <v>3</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="23">
+        <v>3</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="24" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="14">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="16">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="28">
+      <c r="H7" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="23">
         <v>2</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="28">
-        <v>2</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="15">
-        <v>3</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="15">
-        <v>3</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="F8" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="13">
-        <v>3</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="15">
-        <v>2</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>110</v>
+      <c r="G8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4745,6 +4773,224 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -4764,55 +5010,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>106</v>
+      <c r="G1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="165">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,27 +5,26 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpalatam\Documents\UiPath\Consumidor Proceso de Descarga de Reportes Diarios Customer Service\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vya00\Documents\RenewSolutions\Proceso descarga de reportes diarios\Consumidor - Proceso de Descarga de Reportes Diarios Customer Service\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="5"/>
+    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
     <sheet name="Mails" sheetId="4" r:id="rId4"/>
-    <sheet name="Reportes2" sheetId="5" r:id="rId5"/>
-    <sheet name="Reportes" sheetId="7" r:id="rId6"/>
-    <sheet name="Descripcion Reportes" sheetId="6" r:id="rId7"/>
+    <sheet name="Reportes" sheetId="7" r:id="rId5"/>
+    <sheet name="Descripcion Reportes" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
   <si>
     <t>Name</t>
   </si>
@@ -91,15 +90,15 @@
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
@@ -215,11 +214,6 @@
     <t>Problema al Ingresar a la Responsabilidad</t>
   </si>
   <si>
-    <t>Estimados,&lt;br&gt;&lt;br&gt;
-Surgió un problema al tratar de ingresar en la responsabilidad "CAP Shop Floor Supervisor". No se encontró dicha responsabilidad.&lt;br&gt;&lt;br&gt;
-Saludos</t>
-  </si>
-  <si>
     <t>Problema al Descargar Reporte de Sobrepeso</t>
   </si>
   <si>
@@ -228,14 +222,6 @@
 Saludos</t>
   </si>
   <si>
-    <t>Reporte de Sobrepeso Diario' Sin Datos</t>
-  </si>
-  <si>
-    <t>Estimados,&lt;br&gt;&lt;br&gt;
-El archivo de 'Reporte de Sobrepeso Diario' está vacío, por favor verificar.&lt;br&gt;&lt;br&gt;
-Saludos</t>
-  </si>
-  <si>
     <t>Berry Status Report</t>
   </si>
   <si>
@@ -365,15 +351,6 @@
     <t>ExtraData</t>
   </si>
   <si>
-    <t>BASE;76;{28,29,30,40,41,45,67,68,69,70};A:BX</t>
-  </si>
-  <si>
-    <t>Base de datos;32;{7,9};A:AF</t>
-  </si>
-  <si>
-    <t>Base de datos;30;{19};A:AD</t>
-  </si>
-  <si>
     <t>Nombre del reporte en Oracle Application</t>
   </si>
   <si>
@@ -381,11 +358,6 @@
   </si>
   <si>
     <t>Dirección completa del archivo destino a ejecutarse, ya sea, la dirección de la macro o el formulario de excel donde se ingresaran los datos.</t>
-  </si>
-  <si>
-    <t>Datos extra:
-- Si ejecuta una macro entonces se coloca el archivo que generará la macro.
-- Si se ingresaban datos a un formularion entonces se coloca los siguientes datos: Nombre de la hoja del formulario destino; cantidad de columnas del reporte a cargar; {índices de las columna que llevan formato fecha (comenzando el primer índice en cero)} del reporte a cargar; rango de columnas del reporte a cargar</t>
   </si>
   <si>
     <t>Identificador para el robot:
@@ -457,66 +429,52 @@
   </si>
   <si>
     <t>BerryArg</t>
+  </si>
+  <si>
+    <t>30;{19};4;A:AD;Base de datos</t>
+  </si>
+  <si>
+    <t>Datos extra:
+- Si ejecuta una macro entonces se coloca el archivo que generará la macro.
+- Si se ingresaban datos a un formularion entonces se coloca los siguientes datos: cantidad de columnas del reporte a cargar; {índices de las columna que llevan formato fecha (comenzando el primer índice en cero)} del reporte a cargar; enumeración del tipo de dato de columna (https://learn.microsoft.com/en-us/office/vba/api/excel.xlcolumndatatype); rango de columnas del reporte a cargar; Nombre de la hoja del formulario destino</t>
+  </si>
+  <si>
+    <t>76;{28,29,30,40,41,45,67,68,69,70};4;A:BX;BASE</t>
+  </si>
+  <si>
+    <t>32;{7,9};3;A:AF;Base de datos</t>
+  </si>
+  <si>
+    <t>Estimados,&lt;br&gt;&lt;br&gt;
+Surgió un problema al tratar de ingresar en la responsabilidad.&lt;br&gt;&lt;br&gt;
+Saludos</t>
+  </si>
+  <si>
+    <t>No se procesaron todos los reportes</t>
+  </si>
+  <si>
+    <t>Estimados,&lt;br&gt;&lt;br&gt;
+No fue posible procesar los reportes: [Reportes].&lt;br&gt;&lt;br&gt;
+Saludos</t>
+  </si>
+  <si>
+    <t>Estimados,&lt;br&gt;&lt;br&gt;
+'[Reporte]' está vacío, por favor verificar.&lt;br&gt;&lt;br&gt;
+Saludos</t>
+  </si>
+  <si>
+    <t>'[Reporte]' Sin Datos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -574,7 +532,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -613,19 +571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -641,16 +586,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -671,49 +616,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -1117,13 +1041,13 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1132,7 +1056,7 @@
         <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -1141,7 +1065,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1152,12 +1076,12 @@
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -1168,10 +1092,10 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2157,7 +2081,7 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3322,7 +3246,7 @@
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3333,7 +3257,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3382,52 +3306,52 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -3435,10 +3359,10 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4436,7 +4360,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4444,10 +4368,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4493,7 +4417,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="75.75" thickBot="1">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="60.75" thickBot="1">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -4501,7 +4425,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>59</v>
@@ -4512,26 +4436,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="60.75" thickBot="1">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="45.75" thickBot="1">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45.75" thickBot="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4542,241 +4480,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="27">
-        <v>1</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="30">
-        <v>2</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="30">
-        <v>2</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="23">
-        <v>3</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="23">
-        <v>3</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="14">
-        <v>3</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="23">
-        <v>2</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4786,201 +4493,201 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
         <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
         <v>134</v>
-      </c>
-      <c r="C4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" t="s">
-        <v>111</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4988,13 +4695,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5010,55 +4717,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>44</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="165">
+    <row r="2" spans="1:8" ht="210">
       <c r="A2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="4"/>
+    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -464,6 +464,16 @@
   </si>
   <si>
     <t>'[Reporte]' Sin Datos</t>
+  </si>
+  <si>
+    <t>Estimados,&lt;br&gt;&lt;br&gt;
+Surgió una excepción de sistema en la actividad '[Activity]' con el mensaje '[Message]'.&lt;br&gt;&lt;br&gt;
+Saludos
+Información completa:&lt;br&gt;
+[Exception]</t>
+  </si>
+  <si>
+    <t>Excepcion en 'Consumidor Descarga de Reportes Diarios Customer Service'</t>
   </si>
 </sst>
 </file>
@@ -4368,10 +4378,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4473,6 +4483,20 @@
         <v>59</v>
       </c>
     </row>
+    <row r="7" spans="1:6" ht="105">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4482,7 +4506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vya00\Documents\RenewSolutions\Proceso descarga de reportes diarios\Consumidor - Proceso de Descarga de Reportes Diarios Customer Service\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpalatam\Documents\UiPath\Consumidor Proceso de Descarga de Reportes Diarios Customer Service\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="3"/>
+    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="143">
   <si>
     <t>Name</t>
   </si>
@@ -337,15 +337,6 @@
   </si>
   <si>
     <t>Update - Desp</t>
-  </si>
-  <si>
-    <t>7:30 - 9:29 | 9:30 - 11:29 | 11:30 - 14:29 | 14:30 - 16:29 | 16:30 - 23:59</t>
-  </si>
-  <si>
-    <t>7:30 - 9:29 | 14:30 - 16:29</t>
-  </si>
-  <si>
-    <t>7:30 - 9:29</t>
   </si>
   <si>
     <t>ExtraData</t>
@@ -383,15 +374,9 @@
     <t>P:\Comercial\REPORTES DIARIOS\ARCHIVO FUENTE REPORTES DIARIOS.xlsm</t>
   </si>
   <si>
-    <t>P:\Comercial\Despachos\1.Generador Open Orders (Macro).xls</t>
-  </si>
-  <si>
     <t>P:\Comercial\Despachos\3.Open orders to date.xls</t>
   </si>
   <si>
-    <t>P:\Comercial\REPORTES DIARIOS\Status_Report AMA 2021.xlsx</t>
-  </si>
-  <si>
     <t>P:\Comercial\REPORTES DIARIOS\Despachos to date.xlsx</t>
   </si>
   <si>
@@ -429,20 +414,6 @@
   </si>
   <si>
     <t>BerryArg</t>
-  </si>
-  <si>
-    <t>30;{19};4;A:AD;Base de datos</t>
-  </si>
-  <si>
-    <t>Datos extra:
-- Si ejecuta una macro entonces se coloca el archivo que generará la macro.
-- Si se ingresaban datos a un formularion entonces se coloca los siguientes datos: cantidad de columnas del reporte a cargar; {índices de las columna que llevan formato fecha (comenzando el primer índice en cero)} del reporte a cargar; enumeración del tipo de dato de columna (https://learn.microsoft.com/en-us/office/vba/api/excel.xlcolumndatatype); rango de columnas del reporte a cargar; Nombre de la hoja del formulario destino</t>
-  </si>
-  <si>
-    <t>76;{28,29,30,40,41,45,67,68,69,70};4;A:BX;BASE</t>
-  </si>
-  <si>
-    <t>32;{7,9};3;A:AF;Base de datos</t>
   </si>
   <si>
     <t>Estimados,&lt;br&gt;&lt;br&gt;
@@ -474,6 +445,38 @@
   </si>
   <si>
     <t>Excepcion en 'Consumidor Descarga de Reportes Diarios Customer Service'</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\Status_Report.xlsx</t>
+  </si>
+  <si>
+    <t>P:\Comercial\Despachos\1.Generador Open Orders (MacroRPA).xls</t>
+  </si>
+  <si>
+    <t>5:30 - 9:29 | 9:30 - 11:29 | 11:30 - 14:29 | 14:30 - 16:29 | 16:30 - 23:59</t>
+  </si>
+  <si>
+    <t>5:30 - 9:29 | 14:30 - 16:29</t>
+  </si>
+  <si>
+    <t>5:30 - 9:29</t>
+  </si>
+  <si>
+    <t>P:\Comercial\REPORTES DIARIOS\RPA ARCHIVO FUENTE REPORTES DIARIOS.xlsm</t>
+  </si>
+  <si>
+    <t>30;{19};3;A:AD;Base de datos;{,|.}</t>
+  </si>
+  <si>
+    <t>76;{28,29,30,40,41,45,67,68,69,70};4;A:BX;BASE;{.|,}</t>
+  </si>
+  <si>
+    <t>Datos extra:
+- Si ejecuta una macro entonces se coloca el archivo que generará la macro.
+- Si se abre un .txt para cargar su datos en un formulario entonces se coloca los siguientes datos: cantidad de columnas del reporte a cargar; {índices de las columna del reporte a cargar que llevan formato fecha (comenzando el primer índice en cero)}; numeración del tipo de dato de columna (https://learn.microsoft.com/en-us/office/vba/api/excel.xlcolumndatatype); rango de columnas a copiar del reporte a cargar; Nombre de la hoja del formulario destino; {caracter separador decimal y caracter separador de miles} indicando la separacion de ambos con el simbolo "|".</t>
+  </si>
+  <si>
+    <t>32;{7,9};3;A:AF;Base de datos;{,|.}</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1105,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
         <v>94</v>
@@ -3322,7 +3325,7 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
@@ -3336,7 +3339,7 @@
         <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
@@ -3350,7 +3353,7 @@
         <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -3361,7 +3364,7 @@
         <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -3369,10 +3372,10 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4380,7 +4383,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4435,7 +4438,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>59</v>
@@ -4460,10 +4463,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>59</v>
@@ -4474,10 +4477,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>59</v>
@@ -4488,10 +4491,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>59</v>
@@ -4506,8 +4509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4523,7 +4526,7 @@
         <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
         <v>91</v>
@@ -4543,13 +4546,13 @@
         <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4558,7 +4561,7 @@
         <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4566,13 +4569,13 @@
         <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -4581,7 +4584,7 @@
         <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4589,13 +4592,13 @@
         <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4604,7 +4607,7 @@
         <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="H4" t="s">
         <v>101</v>
@@ -4615,13 +4618,13 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -4630,7 +4633,7 @@
         <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="H5" t="s">
         <v>98</v>
@@ -4641,13 +4644,13 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
         <v>121</v>
-      </c>
-      <c r="C6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" t="s">
-        <v>126</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -4656,7 +4659,7 @@
         <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="H6" t="s">
         <v>97</v>
@@ -4667,13 +4670,13 @@
         <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -4682,7 +4685,7 @@
         <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="H7" t="s">
         <v>99</v>
@@ -4696,10 +4699,10 @@
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4708,7 +4711,7 @@
         <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="H8" t="s">
         <v>100</v>
@@ -4725,7 +4728,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4751,7 +4754,7 @@
         <v>73</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>91</v>
@@ -4766,30 +4769,30 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="210">
+    <row r="2" spans="1:8" ht="255">
       <c r="A2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -453,15 +453,6 @@
     <t>P:\Comercial\Despachos\1.Generador Open Orders (MacroRPA).xls</t>
   </si>
   <si>
-    <t>5:30 - 9:29 | 9:30 - 11:29 | 11:30 - 14:29 | 14:30 - 16:29 | 16:30 - 23:59</t>
-  </si>
-  <si>
-    <t>5:30 - 9:29 | 14:30 - 16:29</t>
-  </si>
-  <si>
-    <t>5:30 - 9:29</t>
-  </si>
-  <si>
     <t>P:\Comercial\REPORTES DIARIOS\RPA ARCHIVO FUENTE REPORTES DIARIOS.xlsm</t>
   </si>
   <si>
@@ -477,6 +468,27 @@
   </si>
   <si>
     <t>32;{7,9};3;A:AF;Base de datos;{,|.}</t>
+  </si>
+  <si>
+    <t>5:30 - 6:00</t>
+  </si>
+  <si>
+    <t>5:30 - 6:01</t>
+  </si>
+  <si>
+    <t>5:30 - 6:03</t>
+  </si>
+  <si>
+    <t>5:30 - 6:04</t>
+  </si>
+  <si>
+    <t>5:30 - 6:05</t>
+  </si>
+  <si>
+    <t>5:30 - 6:06</t>
+  </si>
+  <si>
+    <t>5:30 - 18:00</t>
   </si>
 </sst>
 </file>
@@ -4510,7 +4522,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4561,7 +4573,7 @@
         <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4575,7 +4587,7 @@
         <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -4584,7 +4596,7 @@
         <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4598,7 +4610,7 @@
         <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4607,7 +4619,7 @@
         <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
         <v>101</v>
@@ -4633,7 +4645,7 @@
         <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H5" t="s">
         <v>98</v>
@@ -4659,7 +4671,7 @@
         <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
         <v>97</v>
@@ -4673,7 +4685,7 @@
         <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
         <v>117</v>
@@ -4685,7 +4697,7 @@
         <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
         <v>99</v>
@@ -4702,7 +4714,7 @@
         <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4711,7 +4723,7 @@
         <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
         <v>100</v>
@@ -4780,7 +4792,7 @@
         <v>105</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>106</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -450,12 +450,6 @@
     <t>P:\Comercial\REPORTES DIARIOS\Status_Report.xlsx</t>
   </si>
   <si>
-    <t>P:\Comercial\Despachos\1.Generador Open Orders (MacroRPA).xls</t>
-  </si>
-  <si>
-    <t>P:\Comercial\REPORTES DIARIOS\RPA ARCHIVO FUENTE REPORTES DIARIOS.xlsm</t>
-  </si>
-  <si>
     <t>30;{19};3;A:AD;Base de datos;{,|.}</t>
   </si>
   <si>
@@ -470,25 +464,16 @@
     <t>32;{7,9};3;A:AF;Base de datos;{,|.}</t>
   </si>
   <si>
-    <t>5:30 - 6:00</t>
-  </si>
-  <si>
-    <t>5:30 - 6:01</t>
-  </si>
-  <si>
-    <t>5:30 - 6:03</t>
-  </si>
-  <si>
-    <t>5:30 - 6:04</t>
-  </si>
-  <si>
-    <t>5:30 - 6:05</t>
-  </si>
-  <si>
-    <t>5:30 - 6:06</t>
-  </si>
-  <si>
-    <t>5:30 - 18:00</t>
+    <t>5:30 - 11:29</t>
+  </si>
+  <si>
+    <t>5:30 - 11:29 | 16:30 - 18:29</t>
+  </si>
+  <si>
+    <t>5:30 - 11:29 | 11:30 - 13:29 | 13:30 - 16:29 | 16:30 - 18:29 | 18:30 - 23:59</t>
+  </si>
+  <si>
+    <t>P:\Comercial\Despachos\1.Generador Open Orders (Macro).xls</t>
   </si>
 </sst>
 </file>
@@ -4522,7 +4507,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4561,7 +4546,7 @@
         <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>112</v>
@@ -4587,7 +4572,7 @@
         <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -4596,7 +4581,7 @@
         <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4610,7 +4595,7 @@
         <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4619,7 +4604,7 @@
         <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H4" t="s">
         <v>101</v>
@@ -4645,7 +4630,7 @@
         <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H5" t="s">
         <v>98</v>
@@ -4671,7 +4656,7 @@
         <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H6" t="s">
         <v>97</v>
@@ -4685,7 +4670,7 @@
         <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
         <v>117</v>
@@ -4697,7 +4682,7 @@
         <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H7" t="s">
         <v>99</v>
@@ -4714,7 +4699,7 @@
         <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4723,7 +4708,7 @@
         <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H8" t="s">
         <v>100</v>
@@ -4792,7 +4777,7 @@
         <v>105</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>106</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpalatam\Documents\UiPath\Consumidor Proceso de Descarga de Reportes Diarios Customer Service\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vya00\Documents\RenewSolutions\Proceso descarga de reportes diarios\Consumidor - Proceso de Descarga de Reportes Diarios Customer Service\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="4"/>
+    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -474,6 +474,20 @@
   </si>
   <si>
     <t>P:\Comercial\Despachos\1.Generador Open Orders (Macro).xls</t>
+  </si>
+  <si>
+    <t>Ejecución 'Descarga y Procesamiento de Reportes Diarios de CS'</t>
+  </si>
+  <si>
+    <t>Estimados,&lt;br&gt;&lt;br&gt;
+Se descargaron y procesaron correctamente los reportes: [Reportes].&lt;br&gt;&lt;br&gt;
+Saludos</t>
+  </si>
+  <si>
+    <t>luisaaranda@berryglobal.com</t>
+  </si>
+  <si>
+    <t>luisaaranda@berryglobal.com; angelaarbelaez@berryglobal.com; sandrarosero@berryglobal.com</t>
   </si>
 </sst>
 </file>
@@ -4378,10 +4392,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4426,6 +4440,9 @@
       <c r="D2" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="60.75" thickBot="1">
       <c r="A3" s="9">
@@ -4440,6 +4457,9 @@
       <c r="D3" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="60.75" thickBot="1">
       <c r="A4" s="9">
@@ -4454,6 +4474,9 @@
       <c r="D4" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" ht="45.75" thickBot="1">
       <c r="A5" s="9">
@@ -4468,6 +4491,9 @@
       <c r="D5" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="45.75" thickBot="1">
       <c r="A6" s="3">
@@ -4482,6 +4508,9 @@
       <c r="D6" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="E6" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="105">
       <c r="A7" s="3">
@@ -4495,6 +4524,26 @@
       </c>
       <c r="D7" s="3" t="s">
         <v>59</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="135">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4506,7 +4555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vya00\Documents\RenewSolutions\Proceso descarga de reportes diarios\Consumidor - Proceso de Descarga de Reportes Diarios Customer Service\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpalatam\Documents\UiPath\Consumidor Proceso de Descarga de Reportes Diarios Customer Service\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="3"/>
+    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -450,9 +450,6 @@
     <t>P:\Comercial\REPORTES DIARIOS\Status_Report.xlsx</t>
   </si>
   <si>
-    <t>30;{19};3;A:AD;Base de datos;{,|.}</t>
-  </si>
-  <si>
     <t>76;{28,29,30,40,41,45,67,68,69,70};4;A:BX;BASE;{.|,}</t>
   </si>
   <si>
@@ -461,18 +458,6 @@
 - Si se abre un .txt para cargar su datos en un formulario entonces se coloca los siguientes datos: cantidad de columnas del reporte a cargar; {índices de las columna del reporte a cargar que llevan formato fecha (comenzando el primer índice en cero)}; numeración del tipo de dato de columna (https://learn.microsoft.com/en-us/office/vba/api/excel.xlcolumndatatype); rango de columnas a copiar del reporte a cargar; Nombre de la hoja del formulario destino; {caracter separador decimal y caracter separador de miles} indicando la separacion de ambos con el simbolo "|".</t>
   </si>
   <si>
-    <t>32;{7,9};3;A:AF;Base de datos;{,|.}</t>
-  </si>
-  <si>
-    <t>5:30 - 11:29</t>
-  </si>
-  <si>
-    <t>5:30 - 11:29 | 16:30 - 18:29</t>
-  </si>
-  <si>
-    <t>5:30 - 11:29 | 11:30 - 13:29 | 13:30 - 16:29 | 16:30 - 18:29 | 18:30 - 23:59</t>
-  </si>
-  <si>
     <t>P:\Comercial\Despachos\1.Generador Open Orders (Macro).xls</t>
   </si>
   <si>
@@ -488,6 +473,21 @@
   </si>
   <si>
     <t>luisaaranda@berryglobal.com; angelaarbelaez@berryglobal.com; sandrarosero@berryglobal.com</t>
+  </si>
+  <si>
+    <t>32;{7,9};3;A:AF;Base de datos;{.|,}</t>
+  </si>
+  <si>
+    <t>5:30 - 8:50 | 8:51 - 10:50 | 10:51 - 13:50 | 13:51 - 15:50 | 15:51 - 23:59</t>
+  </si>
+  <si>
+    <t>5:30 - 8:50 | 13:51 - 15:50</t>
+  </si>
+  <si>
+    <t>5:30 - 8:50</t>
+  </si>
+  <si>
+    <t>30;{19};3;A:AD;Base de datos;{.|,}</t>
   </si>
 </sst>
 </file>
@@ -4394,7 +4394,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4441,7 +4441,7 @@
         <v>59</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="60.75" thickBot="1">
@@ -4458,7 +4458,7 @@
         <v>59</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="60.75" thickBot="1">
@@ -4475,7 +4475,7 @@
         <v>59</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" ht="45.75" thickBot="1">
@@ -4492,7 +4492,7 @@
         <v>59</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45.75" thickBot="1">
@@ -4509,7 +4509,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="105">
@@ -4526,7 +4526,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="135">
@@ -4534,16 +4534,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4555,8 +4555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4595,7 +4595,7 @@
         <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>112</v>
@@ -4607,7 +4607,7 @@
         <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4621,7 +4621,7 @@
         <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -4630,7 +4630,7 @@
         <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4643,8 +4643,8 @@
       <c r="C4" t="s">
         <v>113</v>
       </c>
-      <c r="D4" t="s">
-        <v>137</v>
+      <c r="D4" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4653,7 +4653,7 @@
         <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
         <v>101</v>
@@ -4679,7 +4679,7 @@
         <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H5" t="s">
         <v>98</v>
@@ -4705,7 +4705,7 @@
         <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H6" t="s">
         <v>97</v>
@@ -4731,7 +4731,7 @@
         <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
         <v>99</v>
@@ -4748,7 +4748,7 @@
         <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4757,7 +4757,7 @@
         <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
         <v>100</v>
@@ -4826,7 +4826,7 @@
         <v>105</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>106</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpalatam\Documents\UiPath\Consumidor Proceso de Descarga de Reportes Diarios Customer Service\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpalatam\Documents\UiPath\RPA_0014 Consumidor Proceso de Descarga de Reportes Diarios Customer Service\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="4"/>
+    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -469,12 +469,6 @@
 Saludos</t>
   </si>
   <si>
-    <t>luisaaranda@berryglobal.com</t>
-  </si>
-  <si>
-    <t>luisaaranda@berryglobal.com; angelaarbelaez@berryglobal.com; sandrarosero@berryglobal.com</t>
-  </si>
-  <si>
     <t>32;{7,9};3;A:AF;Base de datos;{.|,}</t>
   </si>
   <si>
@@ -488,6 +482,12 @@
   </si>
   <si>
     <t>30;{19};3;A:AD;Base de datos;{.|,}</t>
+  </si>
+  <si>
+    <t>luisaaranda@berryglobal.com; angelaarbelaez@berryglobal.com; sandrarosero@berryglobal.com;joaquin.bracci@renewsolutions.com.br</t>
+  </si>
+  <si>
+    <t>joaquin.bracci@renewsolutions.com.br;luisaaranda@berryglobal.com;raysa.guerrero@visionyaccion.com.ar;romeu.campos@renewsolutions.com.br</t>
   </si>
 </sst>
 </file>
@@ -4394,8 +4394,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4441,7 +4441,7 @@
         <v>59</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="60.75" thickBot="1">
@@ -4458,7 +4458,7 @@
         <v>59</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="60.75" thickBot="1">
@@ -4475,7 +4475,7 @@
         <v>59</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" ht="45.75" thickBot="1">
@@ -4492,7 +4492,7 @@
         <v>59</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45.75" thickBot="1">
@@ -4509,7 +4509,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="105">
@@ -4526,10 +4526,10 @@
         <v>59</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="135">
+    <row r="8" spans="1:6" ht="195">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>59</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4555,7 +4555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -4607,7 +4607,7 @@
         <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4644,7 +4644,7 @@
         <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4653,7 +4653,7 @@
         <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
         <v>101</v>
@@ -4679,7 +4679,7 @@
         <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H5" t="s">
         <v>98</v>
@@ -4705,7 +4705,7 @@
         <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
         <v>97</v>
@@ -4731,7 +4731,7 @@
         <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H7" t="s">
         <v>99</v>
@@ -4748,7 +4748,7 @@
         <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4757,7 +4757,7 @@
         <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H8" t="s">
         <v>100</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -488,6 +488,20 @@
   </si>
   <si>
     <t>joaquin.bracci@renewsolutions.com.br;luisaaranda@berryglobal.com;raysa.guerrero@visionyaccion.com.ar;romeu.campos@renewsolutions.com.br</t>
+  </si>
+  <si>
+    <t>Berry Status Report Colombia</t>
+  </si>
+  <si>
+    <t>Estimados,&lt;br&gt;&lt;br&gt;
+Se adjunta 'Berry Status Report'.&lt;br&gt;&lt;br&gt;
+Saludos</t>
+  </si>
+  <si>
+    <t>gustavoconforto@berryglobal.com</t>
+  </si>
+  <si>
+    <t>maximiliano.esbiza@renewsolutions.com.br;luisaaranda@berryglobal.com;joaquin.bracci@renewsolutions.com.br</t>
   </si>
 </sst>
 </file>
@@ -612,7 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -662,6 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4392,10 +4407,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4427,7 +4442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="60.75" thickBot="1">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="195.75" thickBot="1">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -4444,7 +4459,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="60.75" thickBot="1">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="195.75" thickBot="1">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -4461,7 +4476,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="60.75" thickBot="1">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="195.75" thickBot="1">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -4478,7 +4493,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="45.75" thickBot="1">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="195.75" thickBot="1">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -4495,7 +4510,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45.75" thickBot="1">
+    <row r="6" spans="1:6" ht="195.75" thickBot="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4512,7 +4527,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="105">
+    <row r="7" spans="1:6" ht="195">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4544,6 +4559,23 @@
       </c>
       <c r="E8" s="6" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4556,7 +4588,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -498,10 +498,10 @@
 Saludos</t>
   </si>
   <si>
-    <t>gustavoconforto@berryglobal.com</t>
-  </si>
-  <si>
     <t>maximiliano.esbiza@renewsolutions.com.br;luisaaranda@berryglobal.com;joaquin.bracci@renewsolutions.com.br</t>
+  </si>
+  <si>
+    <t>EricRodrigues@berryglobal.com;KevinKruger@berryglobal.com;GustavoConforto@berryglobal.com;MurilloLima@berryglobal.com;DaniloAlmeida@berryglobal.com;mariawosiack@berryglobal.com;AndreaSoyama@berryglobal.com;VictorZanini@berryglobal.com</t>
   </si>
 </sst>
 </file>
@@ -4410,7 +4410,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4571,11 +4571,11 @@
       <c r="C9" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="3"/>
+    <workbookView xWindow="-10248" yWindow="17508" windowWidth="21252" windowHeight="9456" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -208,9 +208,6 @@
 Saludos</t>
   </si>
   <si>
-    <t>maximiliano.esbiza@renewsolutions.com.br</t>
-  </si>
-  <si>
     <t>Problema al Ingresar a la Responsabilidad</t>
   </si>
   <si>
@@ -490,18 +487,21 @@
     <t>joaquin.bracci@renewsolutions.com.br;luisaaranda@berryglobal.com;raysa.guerrero@visionyaccion.com.ar;romeu.campos@renewsolutions.com.br</t>
   </si>
   <si>
-    <t>Berry Status Report Colombia</t>
+    <t>EricRodrigues@berryglobal.com;KevinKruger@berryglobal.com;GustavoConforto@berryglobal.com</t>
+  </si>
+  <si>
+    <t>COL Price List Report y Facturación</t>
   </si>
   <si>
     <t>Estimados,&lt;br&gt;&lt;br&gt;
-Se adjunta 'Berry Status Report'.&lt;br&gt;&lt;br&gt;
+Se adjuntan 'Price List Report' y 'XXARX PLANO FACTURACION EXCEL'.&lt;br&gt;&lt;br&gt;
 Saludos</t>
   </si>
   <si>
-    <t>maximiliano.esbiza@renewsolutions.com.br;luisaaranda@berryglobal.com;joaquin.bracci@renewsolutions.com.br</t>
-  </si>
-  <si>
-    <t>EricRodrigues@berryglobal.com;KevinKruger@berryglobal.com;GustavoConforto@berryglobal.com;MurilloLima@berryglobal.com;DaniloAlmeida@berryglobal.com;mariawosiack@berryglobal.com;AndreaSoyama@berryglobal.com;VictorZanini@berryglobal.com</t>
+    <t>maximiliano.esbiza@renewsolutions.com.br;alejandra.panozo@renewsolutions.com.br</t>
+  </si>
+  <si>
+    <t>alejandra.panozo@renewsolutions.com.br;maximiliano.esbiza@renewsolutions.com.br;luisaaranda@berryglobal.com;joaquin.bracci@renewsolutions.com.br</t>
   </si>
 </sst>
 </file>
@@ -999,12 +999,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1050,7 +1050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -1067,26 +1067,26 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="30">
+    <row r="5" spans="1:26" ht="28.8">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="14.4">
       <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1095,7 +1095,7 @@
         <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -1104,7 +1104,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1115,12 +1115,12 @@
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -1131,10 +1131,10 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2135,12 +2135,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2177,7 +2177,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2302,7 +2302,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -3299,12 +3299,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3345,52 +3345,52 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
         <v>84</v>
       </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -3398,10 +3398,10 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
         <v>124</v>
-      </c>
-      <c r="C6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4410,19 +4410,19 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3"/>
-    <col min="2" max="2" width="35.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="11.44140625" style="3"/>
+    <col min="2" max="2" width="35.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="63.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="195.75" thickBot="1">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="173.4" thickBot="1">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -4452,116 +4452,116 @@
       <c r="C2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>59</v>
+      <c r="D2" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="195.75" thickBot="1">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="173.4" thickBot="1">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>125</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="195.75" thickBot="1">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="173.4" thickBot="1">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>59</v>
+      <c r="D4" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="195.75" thickBot="1">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="173.4" thickBot="1">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>59</v>
+        <v>128</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="195.75" thickBot="1">
+    <row r="6" spans="1:6" ht="173.4" thickBot="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>59</v>
+      <c r="D6" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="195">
+    <row r="7" spans="1:6" ht="172.8">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>130</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="195">
+    <row r="8" spans="1:6" ht="172.8">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>59</v>
+      <c r="D8" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45">
+    <row r="9" spans="1:6" ht="57.6">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4572,10 +4572,10 @@
         <v>147</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4588,211 +4588,211 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
         <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
         <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
         <v>114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>115</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4809,68 +4809,68 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="42.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>44</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="255">
+    <row r="2" spans="1:8" ht="230.4">
       <c r="A2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
